--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_4.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_4.xlsx
@@ -730,86 +730,86 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Oil retention [%]</t>
+          <t>Oil recovery [%]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.01402725166509007</v>
+        <v>0.09608723174748925</v>
       </c>
       <c r="D4" t="n">
         <v>0.003529454733178189</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>-0.01425421823416873</v>
+        <v>-0.01425074140202965</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01080430088697563</v>
+        <v>-0.02664616784046504</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.04286585403566294</v>
+        <v>0.1146412599192454</v>
       </c>
       <c r="I4" t="n">
-        <v>0.009293127923725115</v>
+        <v>-0.04616940559077622</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04591441265174233</v>
+        <v>-0.1079138239037769</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.05238043198321727</v>
+        <v>0.1485390020055601</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.05238043198321727</v>
+        <v>0.1485390020055601</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.05238043198321727</v>
+        <v>0.1485390020055601</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.05238043198321727</v>
+        <v>0.1485390020055601</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>-0.0523798824791953</v>
+        <v>0.1485414719896589</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.05238043198321727</v>
+        <v>0.1485419652376786</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.05238043198321727</v>
+        <v>0.1485419652376786</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.05238043198321727</v>
+        <v>0.1485419652376786</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.05238043198321727</v>
+        <v>0.1485419652376786</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.07736874895074995</v>
+        <v>0.1189965903918636</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>0.009053160650126426</v>
+        <v>0.009094143051765719</v>
       </c>
       <c r="X4" t="n">
-        <v>0.006300169667589372</v>
+        <v>-0.0424396100220634</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.02679621668849178</v>
+        <v>0.1482433771842087</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.08812058310882331</v>
+        <v>-0.1679959086718363</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.02415521856620874</v>
+        <v>0.1417709081348363</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.02415521856620874</v>
+        <v>0.1417709081348363</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.02415521856620874</v>
+        <v>0.1417709081348363</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.02415521856620874</v>
+        <v>0.1417709081348363</v>
       </c>
       <c r="AE4" t="inlineStr"/>
     </row>
@@ -817,86 +817,86 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Bagasse oil extraction efficiency [%]</t>
+          <t>Saccharification oil recovery [%]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04531749867669994</v>
+        <v>0.006024023472960938</v>
       </c>
       <c r="D5" t="n">
         <v>0.007570266830810672</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>-0.01283894537755781</v>
+        <v>-0.01283977884959115</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01633257291149429</v>
+        <v>-0.001497906826066338</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05376304890381227</v>
+        <v>-0.0439340853539973</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01586996953079878</v>
+        <v>-0.0001835200393408016</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04059578388699953</v>
+        <v>0.0006241086524992974</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07394136065365441</v>
+        <v>-0.05365366909014675</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07394136065365441</v>
+        <v>-0.05365366909014675</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07394136065365441</v>
+        <v>-0.05365366909014675</v>
       </c>
       <c r="N5" t="n">
-        <v>0.07394136065365441</v>
+        <v>-0.05365366909014675</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0.07394126465365057</v>
+        <v>-0.05365349139413965</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.07394136065365441</v>
+        <v>-0.0536515277140611</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07394136065365441</v>
+        <v>-0.0536515277140611</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07394136065365441</v>
+        <v>-0.0536515277140611</v>
       </c>
       <c r="T5" t="n">
-        <v>0.07394136065365441</v>
+        <v>-0.0536515277140611</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01724757966590318</v>
+        <v>-0.03095535339821413</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>-0.003414479560579182</v>
+        <v>-0.003434555369382215</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01279783860010814</v>
+        <v>0.02997919158312659</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2094311239022713</v>
+        <v>-0.03135664200964486</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.01738936216757448</v>
+        <v>0.04402579904103196</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.176686975835479</v>
+        <v>-0.03039650300786012</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.176686975835479</v>
+        <v>-0.03039650300786012</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.176686975835479</v>
+        <v>-0.03039650300786012</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.176686975835479</v>
+        <v>-0.03039650300786012</v>
       </c>
       <c r="AE5" t="inlineStr"/>
     </row>
@@ -908,82 +908,82 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2729565278142611</v>
+        <v>0.2677124486924979</v>
       </c>
       <c r="D6" t="n">
         <v>0.0108233524329341</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.003678109683124387</v>
+        <v>0.003676187955047518</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.005166395437079602</v>
+        <v>-0.01431315857787646</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004054259394267679</v>
+        <v>0.001921378816907139</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5616183786247351</v>
+        <v>-0.5598038686321547</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00954869092103133</v>
+        <v>-0.009085756446891982</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00387182626687305</v>
+        <v>-0.000244650825786033</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00387182626687305</v>
+        <v>-0.000244650825786033</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00387182626687305</v>
+        <v>-0.000244650825786033</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00387182626687305</v>
+        <v>-0.000244650825786033</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>0.003871913242876529</v>
+        <v>-0.0002259363930374557</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.00387182626687305</v>
+        <v>-0.000245171625806865</v>
       </c>
       <c r="R6" t="n">
-        <v>0.00387182626687305</v>
+        <v>-0.000245171625806865</v>
       </c>
       <c r="S6" t="n">
-        <v>0.00387182626687305</v>
+        <v>-0.000245171625806865</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00387182626687305</v>
+        <v>-0.000245171625806865</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.05923751632150065</v>
+        <v>-0.04845320017812801</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>-0.01206294221051769</v>
+        <v>-0.01206244569849783</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.01030817882552636</v>
+        <v>0.02131928319045962</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01378746947982968</v>
+        <v>0.01093828618150506</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1786123151444926</v>
+        <v>0.1516427047857082</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01738396639135865</v>
+        <v>0.01367403798696152</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01738396639135865</v>
+        <v>0.01367403798696152</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.01738396639135865</v>
+        <v>0.01367403798696152</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.01738396639135865</v>
+        <v>0.01367403798696152</v>
       </c>
       <c r="AE6" t="inlineStr"/>
     </row>
@@ -995,82 +995,82 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.0007647905585916223</v>
+        <v>-0.003470228394809136</v>
       </c>
       <c r="D7" t="n">
         <v>-0.004311911308476452</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>-0.006493028995721159</v>
+        <v>-0.006492300355692013</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01530604046214964</v>
+        <v>-0.009123265592011522</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.01066391437881251</v>
+        <v>-0.01319621219390192</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.008124840708993627</v>
+        <v>-0.007307334148293365</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01378451912557651</v>
+        <v>-0.01672888621990786</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01217863315914532</v>
+        <v>-0.01465024369000975</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.01217863315914532</v>
+        <v>-0.01465024369000975</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.01217863315914532</v>
+        <v>-0.01465024369000975</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.01217863315914532</v>
+        <v>-0.01465024369000975</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>-0.01217879962315199</v>
+        <v>-0.01470585284423411</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.01217863315914532</v>
+        <v>-0.01465660340226413</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.01217863315914532</v>
+        <v>-0.01465660340226413</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.01217863315914532</v>
+        <v>-0.01465660340226413</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.01217863315914532</v>
+        <v>-0.01465660340226413</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.006916536372661453</v>
+        <v>0.003943329181733166</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.01195576847823074</v>
+        <v>0.01195857772634311</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.0055718724679209</v>
+        <v>0.01337834289597578</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.008996079816059098</v>
+        <v>-0.007419323034921904</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.00933089278923571</v>
+        <v>0.00258687975147519</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.006103383796135351</v>
+        <v>-0.01086764885070595</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.006103383796135351</v>
+        <v>-0.01086764885070595</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.006103383796135351</v>
+        <v>-0.01086764885070595</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.006103383796135351</v>
+        <v>-0.01086764885070595</v>
       </c>
       <c r="AE7" t="inlineStr"/>
     </row>
@@ -1082,82 +1082,82 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2460610634424425</v>
+        <v>0.2374896482835859</v>
       </c>
       <c r="D8" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-0.004365349998614</v>
+        <v>-0.004364375310575011</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.002708848833082487</v>
+        <v>0.02002140406960513</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.001299046419993034</v>
+        <v>0.003575886536779582</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7211817922072714</v>
+        <v>0.7193104041324161</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.00804214955797216</v>
+        <v>0.02199754041249568</v>
       </c>
       <c r="K8" t="n">
-        <v>-8.454624338184971e-06</v>
+        <v>0.006488961667558467</v>
       </c>
       <c r="L8" t="n">
-        <v>-8.454624338184971e-06</v>
+        <v>0.006488961667558467</v>
       </c>
       <c r="M8" t="n">
-        <v>-8.454624338184971e-06</v>
+        <v>0.006488961667558467</v>
       </c>
       <c r="N8" t="n">
-        <v>-8.454624338184971e-06</v>
+        <v>0.006488961667558467</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>-8.634528345381132e-06</v>
+        <v>0.006480250147210005</v>
       </c>
       <c r="Q8" t="n">
-        <v>-8.454624338184971e-06</v>
+        <v>0.006486202435448097</v>
       </c>
       <c r="R8" t="n">
-        <v>-8.454624338184971e-06</v>
+        <v>0.006486202435448097</v>
       </c>
       <c r="S8" t="n">
-        <v>-8.454624338184971e-06</v>
+        <v>0.006486202435448097</v>
       </c>
       <c r="T8" t="n">
-        <v>-8.454624338184971e-06</v>
+        <v>0.006486202435448097</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.03998391539135661</v>
+        <v>-0.02136968034278721</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>-0.02265189681007587</v>
+        <v>-0.02265212980208519</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01229348364308516</v>
+        <v>0.01958784022564444</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.007958506014531245</v>
+        <v>-0.008157659961336602</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.206928799797152</v>
+        <v>-0.1599406483816259</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.00331323651652946</v>
+        <v>-0.003214407296576292</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.00331323651652946</v>
+        <v>-0.003214407296576292</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.00331323651652946</v>
+        <v>-0.003214407296576292</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.00331323651652946</v>
+        <v>-0.003214407296576292</v>
       </c>
       <c r="AE8" t="inlineStr"/>
     </row>
@@ -1173,82 +1173,82 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7878565522822619</v>
+        <v>0.769872551978902</v>
       </c>
       <c r="D9" t="n">
         <v>0.01752971628518865</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>-0.01482452478498099</v>
+        <v>-0.0148253700650148</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009284833853766562</v>
+        <v>0.0161750216444541</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.01752851556556131</v>
+        <v>-0.02017460650572257</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0005513697820547913</v>
+        <v>-0.0006613619784544791</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.02470561789969646</v>
+        <v>-0.02567940064462414</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.02003454425738177</v>
+        <v>-0.02273546106941844</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.02003454425738177</v>
+        <v>-0.02273546106941844</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.02003454425738177</v>
+        <v>-0.02273546106941844</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.02003454425738177</v>
+        <v>-0.02273546106941844</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>-0.02003459177738367</v>
+        <v>-0.02275672324626892</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.02003454425738177</v>
+        <v>-0.02273769633350785</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.02003454425738177</v>
+        <v>-0.02273769633350785</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.02003454425738177</v>
+        <v>-0.02273769633350785</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.02003454425738177</v>
+        <v>-0.02273769633350785</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.5427813488792539</v>
+        <v>-0.320331449421258</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>-0.01159702903988116</v>
+        <v>-0.01159409595176383</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01274410177169913</v>
+        <v>-0.01145142575665637</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.01916211383894445</v>
+        <v>-0.009275533531293883</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.02350112580404503</v>
+        <v>-0.01468028785121151</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.02940227378409095</v>
+        <v>-0.01552431162897247</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.02940227378409095</v>
+        <v>-0.01552431162897247</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.02940227378409095</v>
+        <v>-0.01552431162897247</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.02940227378409095</v>
+        <v>-0.01552431162897247</v>
       </c>
       <c r="AE9" t="inlineStr"/>
     </row>
@@ -1264,82 +1264,82 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.02235057075002283</v>
+        <v>0.0273948451597938</v>
       </c>
       <c r="D10" t="n">
         <v>0.003197859583914383</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-0.03076179559847182</v>
+        <v>-0.03076138097445524</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006966950569988656</v>
+        <v>-0.002530667804046944</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.03152911460592128</v>
+        <v>-0.03272532700627606</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01775898973435959</v>
+        <v>-0.01919138428765537</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001542694148668402</v>
+        <v>-0.001923216183821744</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.03267708274708331</v>
+        <v>-0.03406082997043319</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.03267708274708331</v>
+        <v>-0.03406082997043319</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.03267708274708331</v>
+        <v>-0.03406082997043319</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.03267708274708331</v>
+        <v>-0.03406082997043319</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>-0.03267661599506463</v>
+        <v>-0.03403893649755746</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.03267708274708331</v>
+        <v>-0.03405682821027312</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.03267708274708331</v>
+        <v>-0.03405682821027312</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.03267708274708331</v>
+        <v>-0.03405682821027312</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.03267708274708331</v>
+        <v>-0.03405682821027312</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.0008561294742451788</v>
+        <v>-0.02634811890992475</v>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>-0.01797727569509103</v>
+        <v>-0.01797306830292273</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.00228639981182677</v>
+        <v>0.01099565030275487</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.007605662032409017</v>
+        <v>0.01710634363177045</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.007915863196634527</v>
+        <v>0.03493045387721815</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.00894495981379839</v>
+        <v>0.01017970399118816</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.00894495981379839</v>
+        <v>0.01017970399118816</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.00894495981379839</v>
+        <v>0.01017970399118816</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.00894495981379839</v>
+        <v>0.01017970399118816</v>
       </c>
       <c r="AE10" t="inlineStr"/>
     </row>
@@ -1355,82 +1355,82 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.009745732613829303</v>
+        <v>-0.05758115001524599</v>
       </c>
       <c r="D11" t="n">
         <v>0.007627171025086841</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>-0.0002151505046060202</v>
+        <v>-0.0002160553046422122</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02183817176052557</v>
+        <v>-0.004992247392881147</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002822448448965677</v>
+        <v>-0.0021396272314176</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01513823138952925</v>
+        <v>0.01518376908735076</v>
       </c>
       <c r="J11" t="n">
-        <v>0.008626744607993654</v>
+        <v>0.004348794534583354</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002903327348133093</v>
+        <v>-0.003036891193475647</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002903327348133093</v>
+        <v>-0.003036891193475647</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002903327348133093</v>
+        <v>-0.003036891193475647</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002903327348133093</v>
+        <v>-0.003036891193475647</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>0.00290307899612316</v>
+        <v>-0.003021185208847408</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.002903327348133093</v>
+        <v>-0.003031006201240248</v>
       </c>
       <c r="R11" t="n">
-        <v>0.002903327348133093</v>
+        <v>-0.003031006201240248</v>
       </c>
       <c r="S11" t="n">
-        <v>0.002903327348133093</v>
+        <v>-0.003031006201240248</v>
       </c>
       <c r="T11" t="n">
-        <v>0.002903327348133093</v>
+        <v>-0.003031006201240248</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.008125787653031506</v>
+        <v>0.1443940898077636</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>0.00979894099995764</v>
+        <v>0.00979484429579377</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.02361618373231365</v>
+        <v>0.007363627550743794</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.005973613439087904</v>
+        <v>-0.002785348321786446</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.005114804460592178</v>
+        <v>-0.001551471038058841</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0004623073144922925</v>
+        <v>-0.006469933122797324</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0004623073144922925</v>
+        <v>-0.006469933122797324</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0004623073144922925</v>
+        <v>-0.006469933122797324</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0004623073144922925</v>
+        <v>-0.006469933122797324</v>
       </c>
       <c r="AE11" t="inlineStr"/>
     </row>
@@ -1446,82 +1446,82 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.008053721698148867</v>
+        <v>-0.005204313616172544</v>
       </c>
       <c r="D12" t="n">
         <v>-0.004942293317691732</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>-0.004771635166865407</v>
+        <v>-0.004771534558861382</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.008103506407026239</v>
+        <v>-0.01353318684670829</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.006341937805829719</v>
+        <v>-0.006412795524924496</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.001371149622845985</v>
+        <v>-0.001674391074975643</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.015514939746601</v>
+        <v>-0.0188848743823589</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.007764137398565495</v>
+        <v>-0.008090922083636881</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.007764137398565495</v>
+        <v>-0.008090922083636881</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.007764137398565495</v>
+        <v>-0.008090922083636881</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.007764137398565495</v>
+        <v>-0.008090922083636881</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>-0.007763571862542873</v>
+        <v>-0.008122225668889026</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.007764137398565495</v>
+        <v>-0.008097332003893279</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007764137398565495</v>
+        <v>-0.008097332003893279</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.007764137398565495</v>
+        <v>-0.008097332003893279</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.007764137398565495</v>
+        <v>-0.008097332003893279</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004383956527358261</v>
+        <v>-0.0008746142749845709</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>0.00940000453600018</v>
+        <v>0.009395876535835061</v>
       </c>
       <c r="X12" t="n">
-        <v>0.01755778439063614</v>
+        <v>0.009419517423747595</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0115123351967697</v>
+        <v>0.01816724991795258</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.008524771444990857</v>
+        <v>0.005689064483562579</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.006250950394038016</v>
+        <v>0.01151555210862208</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.006250950394038016</v>
+        <v>0.01151555210862208</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.006250950394038016</v>
+        <v>0.01151555210862208</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.006250950394038016</v>
+        <v>0.01151555210862208</v>
       </c>
       <c r="AE12" t="inlineStr"/>
     </row>
@@ -1533,82 +1533,82 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.3022943316437732</v>
+        <v>-0.2885829034793161</v>
       </c>
       <c r="D13" t="n">
         <v>-0.002908193588327743</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>-0.007502618700104747</v>
+        <v>-0.007503281004131239</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.006931374561699009</v>
+        <v>-0.001177200221739916</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.007738122597710619</v>
+        <v>-0.005264715749256753</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.002530930661237226</v>
+        <v>-0.004880360835214433</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00126612442435773</v>
+        <v>-0.003160791600334387</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.007785039479401578</v>
+        <v>-0.004054540674181626</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.007785039479401578</v>
+        <v>-0.004054540674181626</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.007785039479401578</v>
+        <v>-0.004054540674181626</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.007785039479401578</v>
+        <v>-0.004054540674181626</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>-0.007785119831404793</v>
+        <v>-0.004007801440312057</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.007785039479401578</v>
+        <v>-0.004044077441763098</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.007785039479401578</v>
+        <v>-0.004044077441763098</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.007785039479401578</v>
+        <v>-0.004044077441763098</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.007785039479401578</v>
+        <v>-0.004044077441763098</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03378996135159845</v>
+        <v>0.02143236421729456</v>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>0.007646122097844882</v>
+        <v>0.007648921553956861</v>
       </c>
       <c r="X13" t="n">
-        <v>0.008215491155006973</v>
+        <v>0.0003362510322240852</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.015919423309159</v>
+        <v>0.006066356177269279</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.03023180098527203</v>
+        <v>0.00959733628789345</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01569933470797339</v>
+        <v>0.008122081284883252</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01569933470797339</v>
+        <v>0.008122081284883252</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.01569933470797339</v>
+        <v>0.008122081284883252</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.01569933470797339</v>
+        <v>0.008122081284883252</v>
       </c>
       <c r="AE13" t="inlineStr"/>
     </row>
@@ -1624,82 +1624,82 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.01640538968021558</v>
+        <v>-0.01384792116191684</v>
       </c>
       <c r="D14" t="n">
         <v>-0.03053229702929188</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.006797906287916251</v>
+        <v>0.006799005199960206</v>
       </c>
       <c r="G14" t="n">
-        <v>5.127113699247678e-05</v>
+        <v>0.00795564626514263</v>
       </c>
       <c r="H14" t="n">
-        <v>0.008117276916885892</v>
+        <v>0.007891634783548991</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.01805687189027487</v>
+        <v>-0.0187732050069282</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03160105455862613</v>
+        <v>0.0003245843188218183</v>
       </c>
       <c r="K14" t="n">
-        <v>0.009487334491493379</v>
+        <v>0.009530687229227489</v>
       </c>
       <c r="L14" t="n">
-        <v>0.009487334491493379</v>
+        <v>0.009530687229227489</v>
       </c>
       <c r="M14" t="n">
-        <v>0.009487334491493379</v>
+        <v>0.009530687229227489</v>
       </c>
       <c r="N14" t="n">
-        <v>0.009487334491493379</v>
+        <v>0.009530687229227489</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0.009488065147522606</v>
+        <v>0.009567973342718932</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.009487334491493379</v>
+        <v>0.009538210365528413</v>
       </c>
       <c r="R14" t="n">
-        <v>0.009487334491493379</v>
+        <v>0.009538210365528413</v>
       </c>
       <c r="S14" t="n">
-        <v>0.009487334491493379</v>
+        <v>0.009538210365528413</v>
       </c>
       <c r="T14" t="n">
-        <v>0.009487334491493379</v>
+        <v>0.009538210365528413</v>
       </c>
       <c r="U14" t="n">
-        <v>0.004421966864878674</v>
+        <v>-0.01229563575582543</v>
       </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>0.02516034974241399</v>
+        <v>0.0251648200785928</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.009232695312981151</v>
+        <v>-0.02357999694270489</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0002081803763322114</v>
+        <v>0.02281710818598503</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.000459512850380514</v>
+        <v>0.01515446383817855</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.003228251937130077</v>
+        <v>0.02190009822000393</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.003228251937130077</v>
+        <v>0.02190009822000393</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.003228251937130077</v>
+        <v>0.02190009822000393</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.003228251937130077</v>
+        <v>0.02190009822000393</v>
       </c>
       <c r="AE14" t="inlineStr"/>
     </row>
@@ -1715,82 +1715,82 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.005366479414659175</v>
+        <v>0.006854406994176278</v>
       </c>
       <c r="D15" t="n">
         <v>0.002746113805844552</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>-0.004800023040000921</v>
+        <v>-0.004798475039939001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01441203667985954</v>
+        <v>-0.01471054535639606</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.004127266197189702</v>
+        <v>-0.001910593008375675</v>
       </c>
       <c r="I15" t="n">
-        <v>0.007406496008259839</v>
+        <v>0.008139606085584243</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.008305685553702674</v>
+        <v>-0.001101129794281991</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.003160439070417563</v>
+        <v>-0.0007694870707794828</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.003160439070417563</v>
+        <v>-0.0007694870707794828</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.003160439070417563</v>
+        <v>-0.0007694870707794828</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.003160439070417563</v>
+        <v>-0.0007694870707794828</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>-0.003160960446438417</v>
+        <v>-0.0007984905919396235</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.003160439070417563</v>
+        <v>-0.00077605875104235</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.003160439070417563</v>
+        <v>-0.00077605875104235</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.003160439070417563</v>
+        <v>-0.00077605875104235</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.003160439070417563</v>
+        <v>-0.00077605875104235</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.004806786912271477</v>
+        <v>-0.001794327047773082</v>
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>-0.004460987122439484</v>
+        <v>-0.004462011922480476</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.01098733645803535</v>
+        <v>0.008202989016869265</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.001451838634108389</v>
+        <v>-0.003236993195117683</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.00868345829933833</v>
+        <v>-0.0144890625635625</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.004173685894947435</v>
+        <v>-0.005162027342481093</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.004173685894947435</v>
+        <v>-0.005162027342481093</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.004173685894947435</v>
+        <v>-0.005162027342481093</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.004173685894947435</v>
+        <v>-0.005162027342481093</v>
       </c>
       <c r="AE15" t="inlineStr"/>
     </row>
@@ -1806,82 +1806,82 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.006541652709666106</v>
+        <v>-0.006086022003440879</v>
       </c>
       <c r="D16" t="n">
         <v>-0.004229653321186132</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>0.007518664236746568</v>
+        <v>0.007516970988678839</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01785754928879603</v>
+        <v>-0.01949018344268365</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01319593132815395</v>
+        <v>0.01244249012666825</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0137717800068712</v>
+        <v>-0.01326121080244843</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02116318366201563</v>
+        <v>0.007817955572999122</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01823315132132605</v>
+        <v>0.01771359123654365</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01823315132132605</v>
+        <v>0.01771359123654365</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01823315132132605</v>
+        <v>0.01771359123654365</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01823315132132605</v>
+        <v>0.01771359123654365</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>0.01823301452132058</v>
+        <v>0.01774163360566534</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01823315132132605</v>
+        <v>0.01771802317272092</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01823315132132605</v>
+        <v>0.01771802317272092</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01823315132132605</v>
+        <v>0.01771802317272092</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01823315132132605</v>
+        <v>0.01771802317272092</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01464071636162865</v>
+        <v>-0.01113056377322255</v>
       </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>0.0279401425576057</v>
+        <v>0.02793964537358581</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.03903420399946671</v>
+        <v>-0.007098034978103564</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.01330980624471169</v>
+        <v>0.006730246167112917</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.004636529849461194</v>
+        <v>0.006221360696854426</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.01753102486124099</v>
+        <v>0.004700738972029559</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.01753102486124099</v>
+        <v>0.004700738972029559</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.01753102486124099</v>
+        <v>0.004700738972029559</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.01753102486124099</v>
+        <v>0.004700738972029559</v>
       </c>
       <c r="AE16" t="inlineStr"/>
     </row>
@@ -1897,82 +1897,82 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.07606899491475978</v>
+        <v>-0.07426072233042888</v>
       </c>
       <c r="D17" t="n">
         <v>0.001087392523495701</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>0.00153915375756615</v>
+        <v>0.001539288925571557</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.005698084403362995</v>
+        <v>0.007625666188086924</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.001887214347533867</v>
+        <v>-0.001047747717888286</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01336252546250102</v>
+        <v>-0.01327946654717866</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008852410138038478</v>
+        <v>0.001395946335744493</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.004648250585930023</v>
+        <v>-0.004047484289899371</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.004648250585930023</v>
+        <v>-0.004047484289899371</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.004648250585930023</v>
+        <v>-0.004047484289899371</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.004648250585930023</v>
+        <v>-0.004047484289899371</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>-0.004647865049914601</v>
+        <v>-0.004027251233090049</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.004648250585930023</v>
+        <v>-0.004049332673973306</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.004648250585930023</v>
+        <v>-0.004049332673973306</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.004648250585930023</v>
+        <v>-0.004049332673973306</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.004648250585930023</v>
+        <v>-0.004049332673973306</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.04254938416597536</v>
+        <v>-0.01358915132756605</v>
       </c>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>0.02428583953143358</v>
+        <v>0.02428581620343264</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.0007926352326037447</v>
+        <v>0.006591504316630679</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01488039448357291</v>
+        <v>-0.009450444107388609</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.01772449059697962</v>
+        <v>0.01223645386545815</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.002813068336522733</v>
+        <v>-0.009836144265445769</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.002813068336522733</v>
+        <v>-0.009836144265445769</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.002813068336522733</v>
+        <v>-0.009836144265445769</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.002813068336522733</v>
+        <v>-0.009836144265445769</v>
       </c>
       <c r="AE17" t="inlineStr"/>
     </row>
@@ -1984,82 +1984,82 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.005652097954083918</v>
+        <v>0.001852798346111934</v>
       </c>
       <c r="D18" t="n">
         <v>1.123824044952962e-05</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.0004334359853374394</v>
+        <v>0.0004349771693990867</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01002861037653563</v>
+        <v>0.007326695018284334</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.00405573333032667</v>
+        <v>0.006604081818109977</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.002647221897888876</v>
+        <v>-0.005038011945520477</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01608777690809913</v>
+        <v>0.0003998193782573521</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.005960409358416374</v>
+        <v>0.007711067636442705</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.005960409358416374</v>
+        <v>0.007711067636442705</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.005960409358416374</v>
+        <v>0.007711067636442705</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.005960409358416374</v>
+        <v>0.007711067636442705</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>-0.005960007598400303</v>
+        <v>0.007754182102167283</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.005960409358416374</v>
+        <v>0.007716498068659922</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.005960409358416374</v>
+        <v>0.007716498068659922</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.005960409358416374</v>
+        <v>0.007716498068659922</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.005960409358416374</v>
+        <v>0.007716498068659922</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.006545031429801257</v>
+        <v>0.01299756291990252</v>
       </c>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>0.03004059652962386</v>
+        <v>0.03003851400154055</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.007393010230543006</v>
+        <v>-0.02435697219745962</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.005955472414361828</v>
+        <v>-0.004612322703375615</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.02356646033465841</v>
+        <v>-0.00405472374618895</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.009859434538377381</v>
+        <v>-0.001354464342178573</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.009859434538377381</v>
+        <v>-0.001354464342178573</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.009859434538377381</v>
+        <v>-0.001354464342178573</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.009859434538377381</v>
+        <v>-0.001354464342178573</v>
       </c>
       <c r="AE18" t="inlineStr"/>
     </row>
@@ -2075,82 +2075,82 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.06786791311471652</v>
+        <v>-0.06721375315255011</v>
       </c>
       <c r="D19" t="n">
         <v>0.005544996989799878</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>-0.01463142365725694</v>
+        <v>-0.01463063741722549</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01142889498284249</v>
+        <v>-0.0245190542852386</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.01086225163475076</v>
+        <v>-0.0131035215558345</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1664867412834696</v>
+        <v>0.1624060875522435</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01462067028279528</v>
+        <v>0.006042521891925719</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.009733556165342244</v>
+        <v>-0.01325879121835165</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.009733556165342244</v>
+        <v>-0.01325879121835165</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.009733556165342244</v>
+        <v>-0.01325879121835165</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.009733556165342244</v>
+        <v>-0.01325879121835165</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>-0.009734239685369586</v>
+        <v>-0.01330733611629344</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.009733556165342244</v>
+        <v>-0.01326516897860676</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.009733556165342244</v>
+        <v>-0.01326516897860676</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.009733556165342244</v>
+        <v>-0.01326516897860676</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.009733556165342244</v>
+        <v>-0.01326516897860676</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.05061591639263664</v>
+        <v>-0.06191991578879662</v>
       </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>-0.0007696619827864792</v>
+        <v>-0.000764847678593907</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.0001183691475075553</v>
+        <v>0.01768492876920292</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.0243193907653593</v>
+        <v>0.03414772883425852</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.1306005335440213</v>
+        <v>0.1120063403202536</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.01466360141854406</v>
+        <v>0.03404963041798521</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01466360141854406</v>
+        <v>0.03404963041798521</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01466360141854406</v>
+        <v>0.03404963041798521</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.01466360141854406</v>
+        <v>0.03404963041798521</v>
       </c>
       <c r="AE19" t="inlineStr"/>
     </row>
@@ -2166,82 +2166,82 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01522902627316105</v>
+        <v>-0.01643150292926011</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0007818678072747121</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0.1453175021327001</v>
+        <v>0.1453157968846319</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01865525413002503</v>
+        <v>-0.02678259919511972</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1422775997585186</v>
+        <v>0.1347537953698313</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03215690077427603</v>
+        <v>0.03128752579550103</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05722520755520843</v>
+        <v>0.02491841230587438</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1374144647285785</v>
+        <v>0.1258567471142699</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1374144647285785</v>
+        <v>0.1258567471142699</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1374144647285785</v>
+        <v>0.1258567471142699</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1374144647285785</v>
+        <v>0.1258567471142699</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>0.1374140825525633</v>
+        <v>0.125887726699509</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1374144647285785</v>
+        <v>0.1258636346345454</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1374144647285785</v>
+        <v>0.1258636346345454</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1374144647285785</v>
+        <v>0.1258636346345454</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1374144647285785</v>
+        <v>0.1258636346345454</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02910570673222826</v>
+        <v>0.04502940112917603</v>
       </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>0.3625454676538186</v>
+        <v>0.3625490097659603</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.01533458941071424</v>
+        <v>-0.01976303577149431</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.08078824494546871</v>
+        <v>-0.004824545547861518</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.02774723669388946</v>
+        <v>-0.01931158147646326</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.08345581841023272</v>
+        <v>0.01006045969841839</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.08345581841023272</v>
+        <v>0.01006045969841839</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.08345581841023272</v>
+        <v>0.01006045969841839</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.08345581841023272</v>
+        <v>0.01006045969841839</v>
       </c>
       <c r="AE20" t="inlineStr"/>
     </row>
@@ -2253,82 +2253,82 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.01935309658212386</v>
+        <v>-0.01504260088970403</v>
       </c>
       <c r="D21" t="n">
         <v>0.002703635724145429</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>-0.01565798597031944</v>
+        <v>-0.01565796139431845</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.02061577708714136</v>
+        <v>0.007773641249306499</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.01497886533551411</v>
+        <v>-0.01892526347084811</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01737960165518406</v>
+        <v>0.01652819490112779</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01025118218430062</v>
+        <v>-0.01063620653369174</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.01590641862025674</v>
+        <v>-0.02103209930528397</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.01590641862025674</v>
+        <v>-0.02103209930528397</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.01590641862025674</v>
+        <v>-0.02103209930528397</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.01590641862025674</v>
+        <v>-0.02103209930528397</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>-0.01590650886026035</v>
+        <v>-0.02105311562612462</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.01590641862025674</v>
+        <v>-0.02103511024940441</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.01590641862025674</v>
+        <v>-0.02103511024940441</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.01590641862025674</v>
+        <v>-0.02103511024940441</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.01590641862025674</v>
+        <v>-0.02103511024940441</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01803136305725452</v>
+        <v>0.00358132775925311</v>
       </c>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="n">
-        <v>0.007724307956972317</v>
+        <v>0.007724112980964518</v>
       </c>
       <c r="X21" t="n">
-        <v>0.02394601853634501</v>
+        <v>-0.01141259276914261</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.00361528382469812</v>
+        <v>0.002507767543542859</v>
       </c>
       <c r="Z21" t="n">
-        <v>9.132557165302285e-05</v>
+        <v>0.005279721811188872</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.007773027862921113</v>
+        <v>-0.002520704164828166</v>
       </c>
       <c r="AB21" t="n">
-        <v>-0.007773027862921113</v>
+        <v>-0.002520704164828166</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.007773027862921113</v>
+        <v>-0.002520704164828166</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.007773027862921113</v>
+        <v>-0.002520704164828166</v>
       </c>
       <c r="AE21" t="inlineStr"/>
     </row>
@@ -2340,82 +2340,82 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.02249943075597723</v>
+        <v>-0.02265836980233479</v>
       </c>
       <c r="D22" t="n">
         <v>-0.007685123731404949</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.1860391664175666</v>
+        <v>0.1860394380015775</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005270607505877452</v>
+        <v>-0.007065923698010494</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1782967614561496</v>
+        <v>0.1621253428743422</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0131002276280091</v>
+        <v>0.01244007188960287</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01553592798753523</v>
+        <v>-0.01300333854578445</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1677956212718248</v>
+        <v>0.1442526537701062</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1677956212718248</v>
+        <v>0.1442526537701062</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1677956212718248</v>
+        <v>0.1442526537701062</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1677956212718248</v>
+        <v>0.1442526537701062</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.1677956204078248</v>
+        <v>0.1443384232455369</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1677956212718248</v>
+        <v>0.1442672224426889</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1677956212718248</v>
+        <v>0.1442672224426889</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1677956212718248</v>
+        <v>0.1442672224426889</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1677956212718248</v>
+        <v>0.1442672224426889</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03039530924781236</v>
+        <v>0.01840477302419092</v>
       </c>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>0.4042617879784714</v>
+        <v>0.4042650400746015</v>
       </c>
       <c r="X22" t="n">
-        <v>0.00942389197355238</v>
+        <v>-0.0266686946080168</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1033807184257099</v>
+        <v>0.02100925846714887</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.04508269639530785</v>
+        <v>0.02092739402109576</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.1097335944693438</v>
+        <v>0.04238378540735141</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.1097335944693438</v>
+        <v>0.04238378540735141</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.1097335944693438</v>
+        <v>0.04238378540735141</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.1097335944693438</v>
+        <v>0.04238378540735141</v>
       </c>
       <c r="AE22" t="inlineStr"/>
     </row>
@@ -2427,82 +2427,82 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.001884768363390734</v>
+        <v>0.002169580214783209</v>
       </c>
       <c r="D23" t="n">
         <v>-0.001372140150885606</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>0.004147169349886773</v>
+        <v>0.004147614117904564</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.003491565138680859</v>
+        <v>-0.005571506714932238</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002263755210604539</v>
+        <v>0.0006548637077129539</v>
       </c>
       <c r="I23" t="n">
-        <v>0.005158276238331048</v>
+        <v>0.005698286627931464</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.006575012932666975</v>
+        <v>-0.01050302155160997</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001702723940108957</v>
+        <v>-0.001020731464829258</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001702723940108957</v>
+        <v>-0.001020731464829258</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001702723940108957</v>
+        <v>-0.001020731464829258</v>
       </c>
       <c r="N23" t="n">
-        <v>0.001702723940108957</v>
+        <v>-0.001020731464829258</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>0.00170291200411648</v>
+        <v>-0.0009947735437909418</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.001702723940108957</v>
+        <v>-0.001017763912710556</v>
       </c>
       <c r="R23" t="n">
-        <v>0.001702723940108957</v>
+        <v>-0.001017763912710556</v>
       </c>
       <c r="S23" t="n">
-        <v>0.001702723940108957</v>
+        <v>-0.001017763912710556</v>
       </c>
       <c r="T23" t="n">
-        <v>0.001702723940108957</v>
+        <v>-0.001017763912710556</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.02693377317335093</v>
+        <v>0.002483104131324165</v>
       </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>-0.008648465145938606</v>
+        <v>-0.008652089914083595</v>
       </c>
       <c r="X23" t="n">
-        <v>0.006004712873437827</v>
+        <v>0.003795355513650266</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.01557216719926042</v>
+        <v>-0.002850977791867182</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.01356914569476582</v>
+        <v>-0.005293733587749343</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.02491933885277355</v>
+        <v>-0.004715570588622823</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.02491933885277355</v>
+        <v>-0.004715570588622823</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.02491933885277355</v>
+        <v>-0.004715570588622823</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.02491933885277355</v>
+        <v>-0.004715570588622823</v>
       </c>
       <c r="AE23" t="inlineStr"/>
     </row>
@@ -2518,82 +2518,82 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.02262491610499664</v>
+        <v>-0.02398311014332441</v>
       </c>
       <c r="D24" t="n">
         <v>0.01651558885262355</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.130068900978756</v>
+        <v>0.1300690227067609</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01497004059320981</v>
+        <v>-0.001954195851505151</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1266693811018153</v>
+        <v>0.1213645765601072</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04545457881018315</v>
+        <v>0.0456550776022031</v>
       </c>
       <c r="J24" t="n">
-        <v>0.093021118092556</v>
+        <v>0.0679818919523251</v>
       </c>
       <c r="K24" t="n">
-        <v>0.123173949246958</v>
+        <v>0.1153179854447194</v>
       </c>
       <c r="L24" t="n">
-        <v>0.123173949246958</v>
+        <v>0.1153179854447194</v>
       </c>
       <c r="M24" t="n">
-        <v>0.123173949246958</v>
+        <v>0.1153179854447194</v>
       </c>
       <c r="N24" t="n">
-        <v>0.123173949246958</v>
+        <v>0.1153179854447194</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.1231741372149655</v>
+        <v>0.1153413538616541</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.123173949246958</v>
+        <v>0.1153203892848156</v>
       </c>
       <c r="R24" t="n">
-        <v>0.123173949246958</v>
+        <v>0.1153203892848156</v>
       </c>
       <c r="S24" t="n">
-        <v>0.123173949246958</v>
+        <v>0.1153203892848156</v>
       </c>
       <c r="T24" t="n">
-        <v>0.123173949246958</v>
+        <v>0.1153203892848156</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04707774101910964</v>
+        <v>0.04402372236894889</v>
       </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>-0.4706535529061421</v>
+        <v>-0.4706519498020779</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.02860224804423332</v>
+        <v>-0.001926231397023184</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.1712393033656819</v>
+        <v>-0.08315230430401443</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.07749324962772998</v>
+        <v>-0.07404848993793958</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.0327164700126588</v>
+        <v>-0.02593131550125262</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.0327164700126588</v>
+        <v>-0.02593131550125262</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.0327164700126588</v>
+        <v>-0.02593131550125262</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.0327164700126588</v>
+        <v>-0.02593131550125262</v>
       </c>
       <c r="AE24" t="inlineStr"/>
     </row>
@@ -2605,82 +2605,82 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.01244633243385329</v>
+        <v>-0.01360229881609195</v>
       </c>
       <c r="D25" t="n">
         <v>-0.02022354388094175</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>0.2600879060515162</v>
+        <v>0.2600846033633841</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01073119066919095</v>
+        <v>-0.01699110431792495</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2420935117375507</v>
+        <v>0.2193587399242625</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04527548821101952</v>
+        <v>0.04453932667757306</v>
       </c>
       <c r="J25" t="n">
-        <v>0.06045287553887838</v>
+        <v>0.007945264826812572</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2291527579661103</v>
+        <v>0.198266075290643</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2291527579661103</v>
+        <v>0.198266075290643</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2291527579661103</v>
+        <v>0.198266075290643</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2291527579661103</v>
+        <v>0.198266075290643</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>0.2291529486221179</v>
+        <v>0.1983320135652805</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2291527579661103</v>
+        <v>0.1982778727311149</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2291527579661103</v>
+        <v>0.1982778727311149</v>
       </c>
       <c r="S25" t="n">
-        <v>0.2291527579661103</v>
+        <v>0.1982778727311149</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2291527579661103</v>
+        <v>0.1982778727311149</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02374858952594358</v>
+        <v>0.02103291703331668</v>
       </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>0.6600607562904302</v>
+        <v>0.6600579175703166</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.007717930251484973</v>
+        <v>-0.03173749053358136</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.1499040778077608</v>
+        <v>0.04702909145548177</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.0696298376651935</v>
+        <v>0.04195984046239361</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.1559340443493617</v>
+        <v>0.07574569406982776</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.1559340443493617</v>
+        <v>0.07574569406982776</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1559340443493617</v>
+        <v>0.07574569406982776</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.1559340443493617</v>
+        <v>0.07574569406982776</v>
       </c>
       <c r="AE25" t="inlineStr"/>
     </row>
@@ -2696,82 +2696,82 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.2037354695894188</v>
+        <v>0.2310142206965688</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01490230658009226</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>-0.02541208076048323</v>
+        <v>-0.02541184268047371</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.04010402184771869</v>
+        <v>-0.004158615533134406</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.2130186996778604</v>
+        <v>-0.2739028727083338</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2800071935682877</v>
+        <v>-0.2872788909791556</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.7662630456759005</v>
+        <v>-0.7285637401011346</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.310951275030051</v>
+        <v>-0.3905966955598678</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.310951275030051</v>
+        <v>-0.3905966955598678</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.310951275030051</v>
+        <v>-0.3905966955598678</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.310951275030051</v>
+        <v>-0.3905966955598678</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>-0.3109510606620424</v>
+        <v>-0.390565303366612</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.310951275030051</v>
+        <v>-0.3905943126477724</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.310951275030051</v>
+        <v>-0.3905943126477724</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.310951275030051</v>
+        <v>-0.3905943126477724</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.310951275030051</v>
+        <v>-0.3905943126477724</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.3566579187463167</v>
+        <v>-0.1835449343497974</v>
       </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>0.02007279805091192</v>
+        <v>0.0200712651228506</v>
       </c>
       <c r="X26" t="n">
-        <v>0.01269526212948635</v>
+        <v>-0.005312139857252822</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.4213773600172075</v>
+        <v>0.1816851447465705</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.414270349978814</v>
+        <v>0.262190525399621</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.3872665947226637</v>
+        <v>0.1338832483953299</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.3872665947226637</v>
+        <v>0.1338832483953299</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.3872665947226637</v>
+        <v>0.1338832483953299</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.3872665947226637</v>
+        <v>0.1338832483953299</v>
       </c>
       <c r="AE26" t="inlineStr"/>
     </row>
@@ -2783,82 +2783,82 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.04021425261657009</v>
+        <v>0.03919464406378576</v>
       </c>
       <c r="D27" t="n">
         <v>0.01960177316807092</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.02109072938762917</v>
+        <v>0.02108887466755498</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00942101169805945</v>
+        <v>0.001493427554840205</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02359345308830437</v>
+        <v>0.02179139807178727</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.05117618892704755</v>
+        <v>-0.05074640929385637</v>
       </c>
       <c r="J27" t="n">
-        <v>0.007589787505836621</v>
+        <v>0.01029219426198276</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02523776280151051</v>
+        <v>0.02277259262290371</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02523776280151051</v>
+        <v>0.02277259262290371</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02523776280151051</v>
+        <v>0.02277259262290371</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02523776280151051</v>
+        <v>0.02277259262290371</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>0.02523763425750537</v>
+        <v>0.02279942980797719</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02523776280151051</v>
+        <v>0.02277698807907952</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02523776280151051</v>
+        <v>0.02277698807907952</v>
       </c>
       <c r="S27" t="n">
-        <v>0.02523776280151051</v>
+        <v>0.02277698807907952</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02523776280151051</v>
+        <v>0.02277698807907952</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.0297406126456245</v>
+        <v>-0.007651898130075924</v>
       </c>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="n">
-        <v>-0.00430006874800275</v>
+        <v>-0.004302172780086911</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.02895577536352786</v>
+        <v>-0.000177829581635017</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.00403561912152162</v>
+        <v>-0.01382014629811359</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.07790563156422525</v>
+        <v>0.05058140429525617</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.003927003901080155</v>
+        <v>-0.01314545351781814</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.003927003901080155</v>
+        <v>-0.01314545351781814</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.003927003901080155</v>
+        <v>-0.01314545351781814</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.003927003901080155</v>
+        <v>-0.01314545351781814</v>
       </c>
       <c r="AE27" t="inlineStr"/>
     </row>
@@ -2874,82 +2874,82 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.003177263935090557</v>
+        <v>0.003613711632548464</v>
       </c>
       <c r="D28" t="n">
         <v>0.01176916271076651</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.03344864936994597</v>
+        <v>0.03344846696993868</v>
       </c>
       <c r="G28" t="n">
-        <v>0.006720444566657922</v>
+        <v>-0.00522087895730755</v>
       </c>
       <c r="H28" t="n">
-        <v>0.03467476309982272</v>
+        <v>0.03489274839229391</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03591234566049382</v>
+        <v>0.03447597190703888</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0001404345662510234</v>
+        <v>0.01636258380318103</v>
       </c>
       <c r="K28" t="n">
-        <v>0.03521289481651579</v>
+        <v>0.03444445712177828</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03521289481651579</v>
+        <v>0.03444445712177828</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03521289481651579</v>
+        <v>0.03444445712177828</v>
       </c>
       <c r="N28" t="n">
-        <v>0.03521289481651579</v>
+        <v>0.03444445712177828</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>0.03521326624053064</v>
+        <v>0.03443588057743522</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.03521289481651579</v>
+        <v>0.03444042828961712</v>
       </c>
       <c r="R28" t="n">
-        <v>0.03521289481651579</v>
+        <v>0.03444042828961712</v>
       </c>
       <c r="S28" t="n">
-        <v>0.03521289481651579</v>
+        <v>0.03444042828961712</v>
       </c>
       <c r="T28" t="n">
-        <v>0.03521289481651579</v>
+        <v>0.03444042828961712</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.01163725044949002</v>
+        <v>-0.002162036438481457</v>
       </c>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="n">
-        <v>0.0576346402573856</v>
+        <v>0.05763765801750631</v>
       </c>
       <c r="X28" t="n">
-        <v>0.005427484515320424</v>
+        <v>0.0113593843057806</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.003552619294190035</v>
+        <v>0.008673452158985235</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.01101557304862292</v>
+        <v>0.0004492116659684666</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0096193100167724</v>
+        <v>0.009580932095237282</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.0096193100167724</v>
+        <v>0.009580932095237282</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.0096193100167724</v>
+        <v>0.009580932095237282</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.0096193100167724</v>
+        <v>0.009580932095237282</v>
       </c>
       <c r="AE28" t="inlineStr"/>
     </row>
@@ -2965,82 +2965,82 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.002923281524931261</v>
+        <v>0.003822075992883039</v>
       </c>
       <c r="D29" t="n">
         <v>-0.01346903641076145</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>0.02535801490232059</v>
+        <v>0.0253594725663789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02278140328763209</v>
+        <v>-0.007345745523062391</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02787893295582641</v>
+        <v>0.02412130364284545</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.01949981089199243</v>
+        <v>-0.01903171823326873</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.007974649218967586</v>
+        <v>-0.001040176799498633</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0275741351509654</v>
+        <v>0.02267879447515177</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0275741351509654</v>
+        <v>0.02267879447515177</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0275741351509654</v>
+        <v>0.02267879447515177</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0275741351509654</v>
+        <v>0.02267879447515177</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0.02757390167895606</v>
+        <v>0.02269486381979455</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0275741351509654</v>
+        <v>0.02268365965934639</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0275741351509654</v>
+        <v>0.02268365965934639</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0275741351509654</v>
+        <v>0.02268365965934639</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0275741351509654</v>
+        <v>0.02268365965934639</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.001021645192865808</v>
+        <v>-0.01558740916749636</v>
       </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="n">
-        <v>0.0280804450272178</v>
+        <v>0.02807843545913741</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.008895830987630039</v>
+        <v>0.008733766886007582</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.007966765470861822</v>
+        <v>0.00598373079896816</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.01509702405988096</v>
+        <v>0.02490132387605295</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.00989039050761562</v>
+        <v>0.01979625698385027</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.00989039050761562</v>
+        <v>0.01979625698385027</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.00989039050761562</v>
+        <v>0.01979625698385027</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.00989039050761562</v>
+        <v>0.01979625698385027</v>
       </c>
       <c r="AE29" t="inlineStr"/>
     </row>
@@ -3056,82 +3056,82 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.02055479496619179</v>
+        <v>-0.02265723124228925</v>
       </c>
       <c r="D30" t="n">
         <v>-0.02053317413332696</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>0.00873785382151415</v>
+        <v>0.008737823677512946</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01625832999042059</v>
+        <v>-0.02525596562637139</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01022208141712859</v>
+        <v>0.002000614986352821</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.02075620393424815</v>
+        <v>-0.02022635975305439</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.009112248309604396</v>
+        <v>-0.003352805961102531</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01141740573669623</v>
+        <v>0.001070026026801041</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01141740573669623</v>
+        <v>0.001070026026801041</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01141740573669623</v>
+        <v>0.001070026026801041</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01141740573669623</v>
+        <v>0.001070026026801041</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>0.01141724858468994</v>
+        <v>0.001101671948066878</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01141740573669623</v>
+        <v>0.001073984394959376</v>
       </c>
       <c r="R30" t="n">
-        <v>0.01141740573669623</v>
+        <v>0.001073984394959376</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01141740573669623</v>
+        <v>0.001073984394959376</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01141740573669623</v>
+        <v>0.001073984394959376</v>
       </c>
       <c r="U30" t="n">
-        <v>0.009218260016730399</v>
+        <v>-0.003808276568331062</v>
       </c>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="n">
-        <v>0.004975222183008887</v>
+        <v>0.004975543207021728</v>
       </c>
       <c r="X30" t="n">
-        <v>0.00174809276751442</v>
+        <v>0.016917445312552</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.01533791874188486</v>
+        <v>0.006027401346923913</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.01177458719098349</v>
+        <v>0.007020378328815132</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.0199129351005174</v>
+        <v>0.01012647198905888</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.0199129351005174</v>
+        <v>0.01012647198905888</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.0199129351005174</v>
+        <v>0.01012647198905888</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.0199129351005174</v>
+        <v>0.01012647198905888</v>
       </c>
       <c r="AE30" t="inlineStr"/>
     </row>
@@ -3147,82 +3147,82 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.004158320614332824</v>
+        <v>-0.003473736714949468</v>
       </c>
       <c r="D31" t="n">
         <v>-0.002391382367655294</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>-0.004689366043574641</v>
+        <v>-0.004689181531567261</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.01203267534504677</v>
+        <v>-0.005691345090621758</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.003246849825951918</v>
+        <v>-0.002421862336000788</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01370272864410915</v>
+        <v>0.01331712533268501</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.0005015215423237268</v>
+        <v>0.01055060044978262</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.00264231399369256</v>
+        <v>-0.0008983246439329856</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.00264231399369256</v>
+        <v>-0.0008983246439329856</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.00264231399369256</v>
+        <v>-0.0008983246439329856</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.00264231399369256</v>
+        <v>-0.0008983246439329856</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>-0.002642669577706783</v>
+        <v>-0.0009133113965324558</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.00264231399369256</v>
+        <v>-0.0009007784040311361</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.00264231399369256</v>
+        <v>-0.0009007784040311361</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.00264231399369256</v>
+        <v>-0.0009007784040311361</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.00264231399369256</v>
+        <v>-0.0009007784040311361</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01131019888440796</v>
+        <v>-0.008646815001872598</v>
       </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="n">
-        <v>-0.006893265011730599</v>
+        <v>-0.006894117299764691</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.006803734514388093</v>
+        <v>0.007017759982704465</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.01679131958405577</v>
+        <v>0.0162184472634218</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.01130878547635142</v>
+        <v>0.01865487645819506</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.02684590696183627</v>
+        <v>0.01259768363990734</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.02684590696183627</v>
+        <v>0.01259768363990734</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.02684590696183627</v>
+        <v>0.01259768363990734</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.02684590696183627</v>
+        <v>0.01259768363990734</v>
       </c>
       <c r="AE31" t="inlineStr"/>
     </row>
@@ -3238,82 +3238,82 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.2771543226701729</v>
+        <v>0.302460600674424</v>
       </c>
       <c r="D32" t="n">
         <v>-0.001273986386959456</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>-0.9112129121925164</v>
+        <v>-0.9112143001605719</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.04179540312040156</v>
+        <v>-0.03577504509506453</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.8861214409861246</v>
+        <v>-0.8693483197186156</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1346000438480017</v>
+        <v>-0.1366415684096627</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3385137351799233</v>
+        <v>0.07187284331400152</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.8536168425286736</v>
+        <v>-0.81517700483108</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.8536168425286736</v>
+        <v>-0.81517700483108</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.8536168425286736</v>
+        <v>-0.81517700483108</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.8536168425286736</v>
+        <v>-0.81517700483108</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>-0.8536168449286737</v>
+        <v>-0.8151889140155565</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.8536168425286736</v>
+        <v>-0.8151789422071576</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.8536168425286736</v>
+        <v>-0.8151789422071576</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.8536168425286736</v>
+        <v>-0.8151789422071576</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.8536168425286736</v>
+        <v>-0.8151789422071576</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.1161574119742965</v>
+        <v>-0.04606140760245629</v>
       </c>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>0.01818682210347288</v>
+        <v>0.01818953285558131</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.008572187567814546</v>
+        <v>0.08654607757427496</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.1002994540143854</v>
+        <v>0.06823408882750524</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.008570718582828742</v>
+        <v>0.04527334069093363</v>
       </c>
       <c r="AA32" t="n">
-        <v>-0.1593637713985508</v>
+        <v>-0.1223777644791106</v>
       </c>
       <c r="AB32" t="n">
-        <v>-0.1593637713985508</v>
+        <v>-0.1223777644791106</v>
       </c>
       <c r="AC32" t="n">
-        <v>-0.1593637713985508</v>
+        <v>-0.1223777644791106</v>
       </c>
       <c r="AD32" t="n">
-        <v>-0.1593637713985508</v>
+        <v>-0.1223777644791106</v>
       </c>
       <c r="AE32" t="inlineStr"/>
     </row>
@@ -3329,82 +3329,82 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.01048442230737689</v>
+        <v>-0.006406308448252337</v>
       </c>
       <c r="D33" t="n">
         <v>-0.003106481884259275</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>-0.002083428179337127</v>
+        <v>-0.002084679347387174</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00898914702538805</v>
+        <v>0.003301556851402839</v>
       </c>
       <c r="H33" t="n">
-        <v>0.002488314867592315</v>
+        <v>0.005081754444831026</v>
       </c>
       <c r="I33" t="n">
-        <v>0.004667018106680723</v>
+        <v>0.002775549903021996</v>
       </c>
       <c r="J33" t="n">
-        <v>0.009086362388452162</v>
+        <v>-0.01080093058921369</v>
       </c>
       <c r="K33" t="n">
-        <v>0.003708331924333277</v>
+        <v>0.007646902673876105</v>
       </c>
       <c r="L33" t="n">
-        <v>0.003708331924333277</v>
+        <v>0.007646902673876105</v>
       </c>
       <c r="M33" t="n">
-        <v>0.003708331924333277</v>
+        <v>0.007646902673876105</v>
       </c>
       <c r="N33" t="n">
-        <v>0.003708331924333277</v>
+        <v>0.007646902673876105</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>0.003708580852343233</v>
+        <v>0.00765567976222719</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.003708331924333277</v>
+        <v>0.007646444657857785</v>
       </c>
       <c r="R33" t="n">
-        <v>0.003708331924333277</v>
+        <v>0.007646444657857785</v>
       </c>
       <c r="S33" t="n">
-        <v>0.003708331924333277</v>
+        <v>0.007646444657857785</v>
       </c>
       <c r="T33" t="n">
-        <v>0.003708331924333277</v>
+        <v>0.007646444657857785</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01058266650330666</v>
+        <v>-0.02256433808657352</v>
       </c>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="n">
-        <v>-0.02854904408596176</v>
+        <v>-0.02854856034194241</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.003859293050165578</v>
+        <v>-0.009815128965808863</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.02958926475228073</v>
+        <v>0.02248420134191888</v>
       </c>
       <c r="Z33" t="n">
-        <v>-0.001017659368706375</v>
+        <v>0.02252030384481215</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.01486691973067679</v>
+        <v>0.01992547654101906</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.01486691973067679</v>
+        <v>0.01992547654101906</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.01486691973067679</v>
+        <v>0.01992547654101906</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.01486691973067679</v>
+        <v>0.01992547654101906</v>
       </c>
       <c r="AE33" t="inlineStr"/>
     </row>
@@ -3420,82 +3420,82 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.001053133482125339</v>
+        <v>-0.002973929782957191</v>
       </c>
       <c r="D34" t="n">
         <v>0.002479635075185403</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>-0.003215178656607146</v>
+        <v>-0.003216534560661382</v>
       </c>
       <c r="G34" t="n">
-        <v>0.00366854174153743</v>
+        <v>0.009365019319881127</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.004839113377680674</v>
+        <v>-0.001583614251213662</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01714730727789229</v>
+        <v>0.01791101207644048</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.002676912503154729</v>
+        <v>0.005149440571144055</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.00487092701083708</v>
+        <v>-5.61578902463156e-05</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.00487092701083708</v>
+        <v>-5.61578902463156e-05</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.00487092701083708</v>
+        <v>-5.61578902463156e-05</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.00487092701083708</v>
+        <v>-5.61578902463156e-05</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>-0.00487091952283678</v>
+        <v>-6.340589053623562e-05</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.00487092701083708</v>
+        <v>-5.439350617574024e-05</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.00487092701083708</v>
+        <v>-5.439350617574024e-05</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.00487092701083708</v>
+        <v>-5.439350617574024e-05</v>
       </c>
       <c r="T34" t="n">
-        <v>-0.00487092701083708</v>
+        <v>-5.439350617574024e-05</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.03514420278176811</v>
+        <v>-0.01293888320555533</v>
       </c>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="n">
-        <v>-0.00461011324040453</v>
+        <v>-0.004607318776292751</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.002753396175820497</v>
+        <v>0.003427358224832366</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.008635243257616977</v>
+        <v>0.0143524642914233</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.02597765239910609</v>
+        <v>0.009220423952816957</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.01417726683909067</v>
+        <v>0.01223770589750823</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.01417726683909067</v>
+        <v>0.01223770589750823</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.01417726683909067</v>
+        <v>0.01223770589750823</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.01417726683909067</v>
+        <v>0.01223770589750823</v>
       </c>
       <c r="AE34" t="inlineStr"/>
     </row>
@@ -3511,82 +3511,82 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.0204517724660709</v>
+        <v>-0.01712791710111668</v>
       </c>
       <c r="D35" t="n">
         <v>0.007347835109913403</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>0.0157522049820882</v>
+        <v>0.01575157675806307</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01484228862790021</v>
+        <v>-0.002413014090021089</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01413245523763739</v>
+        <v>0.01784213379472971</v>
       </c>
       <c r="I35" t="n">
-        <v>0.006618995208759807</v>
+        <v>0.006004496784179871</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.007608329858661979</v>
+        <v>-0.01209512695231188</v>
       </c>
       <c r="K35" t="n">
-        <v>0.06174130365365214</v>
+        <v>0.06260449104817964</v>
       </c>
       <c r="L35" t="n">
-        <v>0.06174130365365214</v>
+        <v>0.06260449104817964</v>
       </c>
       <c r="M35" t="n">
-        <v>0.06174130365365214</v>
+        <v>0.06260449104817964</v>
       </c>
       <c r="N35" t="n">
-        <v>0.06174130365365214</v>
+        <v>0.06260449104817964</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>0.06174061062962442</v>
+        <v>0.06247187145887485</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.06174130365365214</v>
+        <v>0.0625891951755678</v>
       </c>
       <c r="R35" t="n">
-        <v>0.06174130365365214</v>
+        <v>0.0625891951755678</v>
       </c>
       <c r="S35" t="n">
-        <v>0.06174130365365214</v>
+        <v>0.0625891951755678</v>
       </c>
       <c r="T35" t="n">
-        <v>0.06174130365365214</v>
+        <v>0.0625891951755678</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01914346530973861</v>
+        <v>0.02558624454344978</v>
       </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="n">
-        <v>-0.03161770417670817</v>
+        <v>-0.03161443988857759</v>
       </c>
       <c r="X35" t="n">
-        <v>0.0009745136091014641</v>
+        <v>0.009801177976319448</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.03067458857171973</v>
+        <v>-0.0145660727535577</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.01215581050223242</v>
+        <v>-0.02772916632516665</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.002408169216326768</v>
+        <v>-0.007486893515475739</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.002408169216326768</v>
+        <v>-0.007486893515475739</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.002408169216326768</v>
+        <v>-0.007486893515475739</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.002408169216326768</v>
+        <v>-0.007486893515475739</v>
       </c>
       <c r="AE35" t="inlineStr"/>
     </row>
@@ -3602,82 +3602,82 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.02744468778578751</v>
+        <v>-0.02390553042822121</v>
       </c>
       <c r="D36" t="n">
         <v>-0.005466936218677448</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>-0.0139752150550086</v>
+        <v>-0.01397647486305899</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.02309731579893037</v>
+        <v>-0.01571485780410464</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.008200878760231971</v>
+        <v>-0.01040878014559056</v>
       </c>
       <c r="I36" t="n">
-        <v>0.003572194798887791</v>
+        <v>0.002183393847335754</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0102697206491258</v>
+        <v>0.01792835433868037</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.006273923578956943</v>
+        <v>-0.009184177423367097</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.006273923578956943</v>
+        <v>-0.009184177423367097</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.006273923578956943</v>
+        <v>-0.009184177423367097</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.006273923578956943</v>
+        <v>-0.009184177423367097</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>-0.006273723706948947</v>
+        <v>-0.009123570124942804</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.006273923578956943</v>
+        <v>-0.009172157358886294</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.006273923578956943</v>
+        <v>-0.009172157358886294</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.006273923578956943</v>
+        <v>-0.009172157358886294</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.006273923578956943</v>
+        <v>-0.009172157358886294</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03511721977268879</v>
+        <v>0.004016105824644232</v>
       </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="n">
-        <v>-0.01057654141506166</v>
+        <v>-0.01058018432720737</v>
       </c>
       <c r="X36" t="n">
-        <v>0.03249687001705139</v>
+        <v>0.0177445573221052</v>
       </c>
       <c r="Y36" t="n">
-        <v>-0.02001175558495051</v>
+        <v>0.01053355147598382</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.01412776366911054</v>
+        <v>0.01231296145251846</v>
       </c>
       <c r="AA36" t="n">
-        <v>-0.01659353893574155</v>
+        <v>0.008567641686705665</v>
       </c>
       <c r="AB36" t="n">
-        <v>-0.01659353893574155</v>
+        <v>0.008567641686705665</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.01659353893574155</v>
+        <v>0.008567641686705665</v>
       </c>
       <c r="AD36" t="n">
-        <v>-0.01659353893574155</v>
+        <v>0.008567641686705665</v>
       </c>
       <c r="AE36" t="inlineStr"/>
     </row>
@@ -3693,82 +3693,82 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0001333522613340904</v>
+        <v>-0.0005144963725798549</v>
       </c>
       <c r="D37" t="n">
         <v>0.01341683295267332</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>0.002181615159264606</v>
+        <v>0.00218023275920931</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.0002418352076860998</v>
+        <v>0.02725266842577586</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00246109233850276</v>
+        <v>-0.0001272748350747906</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02214801602192064</v>
+        <v>0.02304357701774308</v>
       </c>
       <c r="J37" t="n">
-        <v>0.009081425012232389</v>
+        <v>0.006513670665440257</v>
       </c>
       <c r="K37" t="n">
-        <v>0.001980172207206888</v>
+        <v>-0.001379763223190529</v>
       </c>
       <c r="L37" t="n">
-        <v>0.001980172207206888</v>
+        <v>-0.001379763223190529</v>
       </c>
       <c r="M37" t="n">
-        <v>0.001980172207206888</v>
+        <v>-0.001379763223190529</v>
       </c>
       <c r="N37" t="n">
-        <v>0.001980172207206888</v>
+        <v>-0.001379763223190529</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>0.00198005326320213</v>
+        <v>-0.001392742327709693</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.001980172207206888</v>
+        <v>-0.001378879927155197</v>
       </c>
       <c r="R37" t="n">
-        <v>0.001980172207206888</v>
+        <v>-0.001378879927155197</v>
       </c>
       <c r="S37" t="n">
-        <v>0.001980172207206888</v>
+        <v>-0.001378879927155197</v>
       </c>
       <c r="T37" t="n">
-        <v>0.001980172207206888</v>
+        <v>-0.001378879927155197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.007907435740297428</v>
+        <v>-0.01322879217715169</v>
       </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="n">
-        <v>0.01320511233620449</v>
+        <v>0.01320066580802663</v>
       </c>
       <c r="X37" t="n">
-        <v>0.004435290403526038</v>
+        <v>-0.01734100668284246</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.01478403596771626</v>
+        <v>-0.001888434662709735</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.0137531100221244</v>
+        <v>0.004303326028133041</v>
       </c>
       <c r="AA37" t="n">
-        <v>-0.006157362198294487</v>
+        <v>0.005296045171841807</v>
       </c>
       <c r="AB37" t="n">
-        <v>-0.006157362198294487</v>
+        <v>0.005296045171841807</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.006157362198294487</v>
+        <v>0.005296045171841807</v>
       </c>
       <c r="AD37" t="n">
-        <v>-0.006157362198294487</v>
+        <v>0.005296045171841807</v>
       </c>
       <c r="AE37" t="inlineStr"/>
     </row>
@@ -3784,82 +3784,82 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.009992922255716888</v>
+        <v>0.00783537976941519</v>
       </c>
       <c r="D38" t="n">
         <v>0.02909218925968757</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>0.009174601998984079</v>
+        <v>0.009174957102998283</v>
       </c>
       <c r="G38" t="n">
-        <v>0.004286784889381935</v>
+        <v>-0.006270419486272431</v>
       </c>
       <c r="H38" t="n">
-        <v>0.009388679319772501</v>
+        <v>0.01429159072079419</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01183280284131211</v>
+        <v>0.01168811950752478</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01194565877172516</v>
+        <v>0.004192155023430567</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01144507917780317</v>
+        <v>0.01780597828023913</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01144507917780317</v>
+        <v>0.01780597828023913</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01144507917780317</v>
+        <v>0.01780597828023913</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01144507917780317</v>
+        <v>0.01780597828023913</v>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>0.01144496071379843</v>
+        <v>0.01781379652055186</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01144507917780317</v>
+        <v>0.01781442100057684</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01144507917780317</v>
+        <v>0.01781442100057684</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01144507917780317</v>
+        <v>0.01781442100057684</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01144507917780317</v>
+        <v>0.01781442100057684</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01686336067453443</v>
+        <v>0.008587430455497216</v>
       </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="n">
-        <v>0.006655716842228672</v>
+        <v>0.006658837226353489</v>
       </c>
       <c r="X38" t="n">
-        <v>-0.0003420165206673522</v>
+        <v>-0.01060650311200245</v>
       </c>
       <c r="Y38" t="n">
-        <v>-0.01192573756531572</v>
+        <v>-0.01628678772872786</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.02797548918301956</v>
+        <v>-0.01582138815285553</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.01853427971737119</v>
+        <v>-0.0120299326091973</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.01853427971737119</v>
+        <v>-0.0120299326091973</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.01853427971737119</v>
+        <v>-0.0120299326091973</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.01853427971737119</v>
+        <v>-0.0120299326091973</v>
       </c>
       <c r="AE38" t="inlineStr"/>
     </row>
@@ -3875,82 +3875,82 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.009682389987295597</v>
+        <v>0.005676056387042255</v>
       </c>
       <c r="D39" t="n">
         <v>0.009771227334849092</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>-0.006649719625988784</v>
+        <v>-0.006649703497988138</v>
       </c>
       <c r="G39" t="n">
-        <v>0.004011237051105623</v>
+        <v>-0.002132718223934974</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.01158618511972547</v>
+        <v>-0.01642041308765112</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.009709172740366909</v>
+        <v>-0.008868686466747457</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.03154901847630991</v>
+        <v>-0.01609195743882314</v>
       </c>
       <c r="K39" t="n">
-        <v>0.004365332430613297</v>
+        <v>-0.004420448048817921</v>
       </c>
       <c r="L39" t="n">
-        <v>0.004365332430613297</v>
+        <v>-0.004420448048817921</v>
       </c>
       <c r="M39" t="n">
-        <v>0.004365332430613297</v>
+        <v>-0.004420448048817921</v>
       </c>
       <c r="N39" t="n">
-        <v>0.004365332430613297</v>
+        <v>-0.004420448048817921</v>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>0.004365184686607387</v>
+        <v>-0.004403491472139659</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.004365332430613297</v>
+        <v>-0.004412018000480719</v>
       </c>
       <c r="R39" t="n">
-        <v>0.004365332430613297</v>
+        <v>-0.004412018000480719</v>
       </c>
       <c r="S39" t="n">
-        <v>0.004365332430613297</v>
+        <v>-0.004412018000480719</v>
       </c>
       <c r="T39" t="n">
-        <v>0.004365332430613297</v>
+        <v>-0.004412018000480719</v>
       </c>
       <c r="U39" t="n">
-        <v>-0.004962984198519367</v>
+        <v>0.000924875076995003</v>
       </c>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="n">
-        <v>-0.002624464040978561</v>
+        <v>-0.002625135945005437</v>
       </c>
       <c r="X39" t="n">
-        <v>-0.005080406408753469</v>
+        <v>0.008838192324022748</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.02009472411627124</v>
+        <v>0.005081625549714907</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.01237457118298285</v>
+        <v>0.0002308299932331997</v>
       </c>
       <c r="AA39" t="n">
-        <v>-0.005587813375512534</v>
+        <v>-0.01165856600234264</v>
       </c>
       <c r="AB39" t="n">
-        <v>-0.005587813375512534</v>
+        <v>-0.01165856600234264</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.005587813375512534</v>
+        <v>-0.01165856600234264</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.005587813375512534</v>
+        <v>-0.01165856600234264</v>
       </c>
       <c r="AE39" t="inlineStr"/>
     </row>
